--- a/src/test/resources/type/typeError.xlsx
+++ b/src/test/resources/type/typeError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\type\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84D27C9-C1CA-4E9C-98F6-1B45B5FB69F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933CE2F0-1474-48CF-9245-7F0B7609CE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="900" windowWidth="21624" windowHeight="11244" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\xihu_\Desktop\2.json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://task.hugang.io/login</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -70,6 +66,10 @@
   </si>
   <si>
     <t>id=username1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>download/2.json</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -101,37 +101,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -143,10 +156,130 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -163,20 +296,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,83 +653,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="9">
         <v>2000</v>
       </c>
     </row>

--- a/src/test/resources/type/typeError.xlsx
+++ b/src/test/resources/type/typeError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\type\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933CE2F0-1474-48CF-9245-7F0B7609CE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34A15A6-B6C2-46C3-A40A-BDB345F4C158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>readProperties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${name}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -69,15 +65,92 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>download/2.json</t>
+    <t>setProperty</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"hugang"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFC77DBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"password"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"123456"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -128,6 +201,24 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC77DBB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,130 +247,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -296,44 +267,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -355,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -395,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -501,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,12 +612,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -668,67 +629,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>11</v>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>2000</v>
       </c>
     </row>
